--- a/loaded_influencer_data/_lvyyy_/_lvyyy__video.xlsx
+++ b/loaded_influencer_data/_lvyyy_/_lvyyy__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/photo/7454768889201741064</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="C2" t="n">
-        <v>2496</v>
+        <v>2525</v>
       </c>
       <c r="D2" t="n">
         <v>24</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8.571428571428571</v>
+        <v>8.357377049180329</v>
       </c>
       <c r="I2" t="n">
-        <v>8.489795918367347</v>
+        <v>8.278688524590164</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.07868852459016393</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2755102040816327</v>
+        <v>0.2721311475409836</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7364596392116981010</t>
         </is>
@@ -568,1957 +568,1960 @@
         <v>5600000</v>
       </c>
       <c r="C3" t="n">
-        <v>434600</v>
+        <v>2525</v>
       </c>
       <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>83</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Đăng bộ ảnh nhẹ nhàng đầu năm mong năm nay mọi thứ cũng sẽ nhẹ nhàng với em như vậy 🧧🧧🧧
+#Tet2025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04551785714285714</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04508928571428571</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0004285714285714285</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001482142857142857</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7489667785237236998</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C4" t="n">
+        <v>435100</v>
+      </c>
+      <c r="D4" t="n">
         <v>1964</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36300</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36400</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Makeup dịu keo bằng đồ nghề của @Thu Nguyệt @#dailymakeup #makeup #fyp #foryou #xuhuong</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>7.795785714285715</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.760714285714286</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.03507142857142857</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6482142857142857</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>41232.45283018868</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41047.16981132075</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>185.2830188679245</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3433.962264150944</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2024-5-3</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7489441444084649271</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chuẩn bị siêng sài e này lại nha , mới i nạp vitamin sea về nên da ngăm thì thoai
+#bodylotion #duongda</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2.992518703241895</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.992518703241895</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1870324189526185</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7489406390583184646</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Một em căng chống ném siêu nhẹ da #skincare #kemchongnang #kemchongnangchodadaumun #garniervn</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1268191268191268</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1247401247401247</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002079002079002079</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.004158004158004158</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7489280955467812101</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2483</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2427</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rồi là đổi vữ chưa , 2 đứa sài i chang à trừi #skincare #goclamdep #actidem</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>98.1876761981474</v>
+      </c>
+      <c r="I7" t="n">
+        <v>97.74466371325011</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4430124848973017</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.987112364075715</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7489051881478655287</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C8" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Gì chứ không quên nhiệm vụ làm sạch da nha #beautytok #goclamdep #garniervn #nuoctaytrang #micellarbha</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.991886409736308</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.991886409736308</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2535496957403651</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7488270804480724279</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29400</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Gòi gòi chiến này t tốn xiền dữ
+#vohalinh #halinhofficial #surmedic #frankly</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2074829931972789</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.006802721088435374</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7487204517012933893</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>273700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>73</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kẻ thù của thâm mụn phải nói tới em này #vitamincneogen #neogen</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1848739495798319</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1772013153087322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.007672634271099744</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02667153818048959</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7486720717493488904</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>169900</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C11" t="n">
         <v>6067</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D11" t="n">
         <v>41</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>289</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ê lại nha nãy bị tắt tiếng huhu #makeupdedang #lemonade</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H11" t="n">
         <v>3.595055915244262</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I11" t="n">
         <v>3.570924072984108</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.02413184226015303</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L11" t="n">
         <v>0.1701000588581519</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7486306156596448530</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>115900</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C12" t="n">
         <v>6220</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D12" t="n">
         <v>49</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>237</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Ê lại nha nãy bị tắt tiếng huhu #makeupdedang #lemonade</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H12" t="n">
         <v>5.408973252804142</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I12" t="n">
         <v>5.366695427092321</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.04227782571182054</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L12" t="n">
         <v>0.2044866264020707</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7486072546031422738</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>17200</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C13" t="n">
         <v>655</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D13" t="n">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>53</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Makeup riết mà tội nghiệp cái da luôn á #BNBG #tramtra #giammun #Matnaquocdan</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H13" t="n">
         <v>3.895348837209303</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I13" t="n">
         <v>3.808139534883721</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.0872093023255814</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L13" t="n">
         <v>0.3081395348837209</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7485197660379483410</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>103400</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C14" t="n">
         <v>8003</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D14" t="n">
         <v>67</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2010</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Newbie thì nên chọn bảng mắt nào để dễ sử dụng???🤔#makeup #odb #catchycosmetics #fyp #xh</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H14" t="n">
         <v>7.804642166344294</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I14" t="n">
         <v>7.739845261121856</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.06479690522243714</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>1.943907156673114</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7484945306816302354</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>5259</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>129</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>15</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Đi sự kiện của Hoa Tây Tử với tui nha #florasis #hoataytu</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H15" t="n">
         <v>2.50998288648032</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I15" t="n">
         <v>2.452937820878494</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.05704506560182544</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L15" t="n">
         <v>0.2852253280091272</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7484585432617962759</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B16" t="n">
         <v>8554</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>1146</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>25</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Nếu có 500k???💵#yoneya #yoneyagirl #fyp #beauty #haircare #tocdep #duongtoc #chamsoctoc #xh</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>13.47907411737199</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I16" t="n">
         <v>13.39724105681553</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.08183306055646482</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L16" t="n">
         <v>0.2922609305588029</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7484185424940879122</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B17" t="n">
         <v>7798</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C17" t="n">
         <v>213</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>22</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Trời ơi làm ơn cho hãng nì hot đi mà #frankly #deepcleansingoil #daytaytrangbha</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>2.96229802513465</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I17" t="n">
         <v>2.73146960759169</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.2308284175429597</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L17" t="n">
         <v>0.2821236214413952</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7484127392273829127</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B18" t="n">
         <v>4205</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>78</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Cái hãng này biết chiều lòng da dầu mụn quá #skincare #kemchongnang #kemchongnangchodadaumun #garniervn</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>1.87871581450654</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>1.854934601664685</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.02378121284185494</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L18" t="n">
         <v>0.2140309155766944</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7483857544302169352</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B19" t="n">
         <v>4116</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>100</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>8</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Thêm 1 bước đơn giản thôi là sẽ giúp da lên một tầm cao mới á #caryophy #fyp</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>2.50242954324587</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>2.429543245869777</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.0728862973760933</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L19" t="n">
         <v>0.1943634596695821</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7483750329377443080</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>6207</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>208</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>32</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Thêm 1 lưu ý khi chụp ở metro đó là nhớ xịt giữ nếp nha các mom
 #macaland #xitgiuneptoc #vpva #byscom</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H20" t="n">
         <v>3.431609473175447</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I20" t="n">
         <v>3.351055260190108</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.08055421298533913</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L20" t="n">
         <v>0.5155469631061704</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7483020122047958290</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B21" t="n">
         <v>33100</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
         <v>315</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>33</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Team da dầu đâu rùi , tui có đồ chơi mới nè #skincare #kemchongnang #kemchongnangchodadaumun #garniervn</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H21" t="n">
         <v>0.9607250755287009</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I21" t="n">
         <v>0.9516616314199396</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.00906344410876133</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L21" t="n">
         <v>0.09969788519637462</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7482248013985926418</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B22" t="n">
         <v>34700</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>253</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>18</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Team da dầu đâu rùi , tui có đồ chơi mới nè #skincare #kemchongnang #kemchongnangchodadaumun #garniervn</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H22" t="n">
         <v>0.7377521613832854</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I22" t="n">
         <v>0.729106628242075</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.008645533141210374</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L22" t="n">
         <v>0.05187319884726225</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7481612536626924818</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>6609</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>177</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Cái cảm giác da đang châm chích đắp mặt nạ lên nó dịuuuuu nó mát @VT Cosmetics VN @StyleKorean_VN</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H23" t="n">
         <v>2.678166137085792</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I23" t="n">
         <v>2.678166137085792</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.2572249962172795</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7481516895833754888</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B24" t="n">
         <v>3911</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>94</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>8</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Mùa hè tới là mấy chai kcn nâng tone ở nhà phát huy công dụng tuyệt đối #caryophy</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H24" t="n">
         <v>2.454615187931475</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I24" t="n">
         <v>2.403477371516236</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.05113781641523907</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L24" t="n">
         <v>0.2045512656609563</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7481299138777206034</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B25" t="n">
         <v>6522</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>214</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>13</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Mùa hè tới là mấy chai kcn nâng tone ở nhà phát huy công dụng tuyệt đối #caryophy</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H25" t="n">
         <v>3.342532965348053</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I25" t="n">
         <v>3.281202085249924</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.06133088009812941</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L25" t="n">
         <v>0.1993253603189206</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7480922937244011784</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B26" t="n">
         <v>2951</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>80</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>10</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Dạo này siêng dưỡng sáng và chống nắng kĩ nên da trộm vía lém #chongnangvachdo #serummelasylhong</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H26" t="n">
         <v>2.812605896306337</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I26" t="n">
         <v>2.710945442222975</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1016604540833616</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L26" t="n">
         <v>0.3388681802778719</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7480905649770073352</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>6220</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C27" t="n">
         <v>138</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D27" t="n">
         <v>6</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>13</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Con gái mà để cái da thô ráp cỡ đó hả Vy😬 #rmonvietnam #kembody #rmon</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H27" t="n">
         <v>2.315112540192926</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>2.218649517684887</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.09646302250803858</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L27" t="n">
         <v>0.2090032154340836</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7479752896641387784</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>4649</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>112</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>7</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>11</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Bộ đôi cấp ẩm mình siêu thích và sẽ mua lại mãi thôi ✨#serumhatim #lorealparishub #duongam #dưỡngẩm</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>2.559690255969026</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>2.409120240912024</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1505700150570015</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L28" t="n">
         <v>0.2366100236610024</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7479688064114232584</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>73500</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>626</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>55</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Chị em ơi thời tới rồi săn lẹ thôi #fixxsonatural #fixxsettingspray #Sonatural #fyp</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>0.8707482993197279</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>0.8517006802721088</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>0.07482993197278912</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7478920488027180296</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>287100</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>21300</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>72</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>2441</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Đi học thì cứ kem chống nắng nâng tone mà triển thôi , vừa nhanh vừa tiện vừa đẹp #frankly #kemchongnang</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>7.444096133751306</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>7.41901776384535</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.02507836990595611</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>0.8502264019505398</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7478179926785461522</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>113700</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>6013</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>87</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>281</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Ê coi bộ chơi cái này healthy nè #makeup #chanllengemake #lemonade #makeupdedang #fyp #xh</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>5.364995602462621</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>5.288478452066842</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.07651715039577836</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>0.247141600703606</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7477912622025706759</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>12200</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>238</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>20</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Serum có thành phần từ trái nhàu??? #pestlo #nonicica</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>2.024590163934426</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>1.950819672131147</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.07377049180327869</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>0.1639344262295082</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7477554750326656264</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>6632</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>256</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>13</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Serum có thành phần từ trái nhàu??? #pestlo #nonicica</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>3.920386007237636</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>3.860072376357056</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.06031363088057901</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.1960193003618818</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7477422861343395090</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>3362</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>54</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>7</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Chơi game “unlockYourHydration “cùng tui để có cơ hội nhận quà xịn từ nhà @Beyond Vietnam
 #BeyondVietnam #</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>1.635930993456276</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>1.606186793575253</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.0297441998810232</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>0.2082093991671624</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7476804523953048850</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>20100</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>410</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>94</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Khô chỗ nào lăn chỗ đó ✨#skincare #aperire #aperirebalm #foryou</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>2.119402985074627</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>2.039800995024875</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.07960199004975124</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>0.4676616915422886</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7476039684272049426</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>8893</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>496</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>12</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>47</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
         <v>5.712358034409086</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>5.577420443045092</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1349375913639942</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>0.5285055661756437</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7475335735353085192</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>136100</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>9338</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>58</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1388</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Mốc nền hả??? #foryou #tiam #tiamha</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>6.903747244673035</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>6.861131520940485</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0426157237325496</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>1.019838354151359</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7475179182301941000</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>451400</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>27500</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>93</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2664</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Tuổi 21💕🎂#glittercake #birthday #fyp</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>6.112760301284891</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>6.092157731501993</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.02060256978289765</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>0.5901639344262295</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7474963099464764679</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>414700</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>20400</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>268</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1374</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Ê í là tăng cao quá hãng ơi🫠</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>4.983843742464432</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>4.91921871232216</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.06462503014227153</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>0.3313238485652279</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7474807343490944264</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>26300</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>3606</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>44</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>162</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Princess Pisces 🎀🎂24.02✨#birthday #piscesgirl #fyp</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>13.87832699619772</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>13.71102661596958</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1673003802281369</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>0.6159695817490495</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7474213059012218120</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>23900</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>676</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>13</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>73</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Vì cái nền trộm vía hơn từ nay cổ siêng sử dụng kem lót dưỡng ẩm rùi nhen #makeup #judydoll #kemlot #kemduongam</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>2.882845188284519</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>2.828451882845188</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.05439330543933054</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>0.305439330543933</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7474181181420866824</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>30200</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>183</v>
-      </c>
-      <c r="D35" t="n">
-        <v>24</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>14</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Kem dưỡng dạng GEL CREAM -chân ái mới của làn da hhtd khó tính của mình #skincare #jumisovn #kemduongha #foryou</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0.685430463576159</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.6059602649006622</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.07947019867549669</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.04635761589403974</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7474065855563812114</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3630</v>
-      </c>
-      <c r="C36" t="n">
-        <v>60</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Son nhung xinh yêu Colorkey #soncolorkey #sonnhungcolorkey #sonxinh #goclamdep #viral #fyp #xh</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1.763085399449036</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.652892561983471</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1101928374655647</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1652892561983471</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7473841071005469959</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36100</v>
-      </c>
-      <c r="C37" t="n">
-        <v>326</v>
-      </c>
-      <c r="D37" t="n">
-        <v>8</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Mascara gì chưa người đẹp, mascara tơi mi lâu trôi nè người đẹp #Jejo #jejomascara #reviewmascara #mascaralautroi</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>0.925207756232687</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9030470914127423</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.0221606648199446</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1357340720221606</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7473071624267238663</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>10400</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1557</v>
-      </c>
-      <c r="D38" t="n">
-        <v>15</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Mascara gì chưa người đẹp, mascara tơi mi lâu trôi nè người đẹp #Jejo #jejomascara #reviewmascara #mascaralautroi</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>15.11538461538462</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14.97115384615384</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.1442307692307692</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.1634615384615385</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7472240722419141895</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>93800</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7748</v>
-      </c>
-      <c r="D39" t="n">
-        <v>14</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>142</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Cơm nước gì chưa người đẹp, bới tô cơm ga vừa ăn vừa coi nè #makeup #otwoovn #fyp</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8.27505330490405</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8.260127931769723</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01492537313432836</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.1513859275053305</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7472003631387004167</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>36500</v>
-      </c>
-      <c r="C40" t="n">
-        <v>215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>23</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Fan ruột nhà L’oreal sao mà bỏ qua được sữa chống nắng thế hệ mới này #suachongnang2trong1</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>0.6191780821917808</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.589041095890411</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.03013698630136986</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.06301369863013699</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7471958480983919880</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>446900</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7609</v>
-      </c>
-      <c r="D41" t="n">
-        <v>44</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2070</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Fan ruột nhà L’oreal sao mà bỏ qua được sữa chống nắng thế hệ mới này #suachongnang2trong1</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1.712463638397852</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.702618035354666</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.009845603043186395</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.4631908704408145</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7471838835102584082</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>43300</v>
-      </c>
-      <c r="C42" t="n">
-        <v>487</v>
       </c>
       <c r="D42" t="n">
         <v>24</v>
@@ -2527,434 +2530,484 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>14</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Kem dưỡng dạng GEL CREAM -chân ái mới của làn da hhtd khó tính của mình #skincare #jumisovn #kemduongha #foryou</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.685430463576159</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6059602649006622</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.07947019867549669</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.04635761589403974</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7474065855563812114</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3630</v>
+      </c>
+      <c r="C43" t="n">
+        <v>60</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Son nhung xinh yêu Colorkey #soncolorkey #sonnhungcolorkey #sonxinh #goclamdep #viral #fyp #xh</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1.763085399449036</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.652892561983471</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1101928374655647</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1652892561983471</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7473841071005469959</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>36100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>326</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>49</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Mascara gì chưa người đẹp, mascara tơi mi lâu trôi nè người đẹp #Jejo #jejomascara #reviewmascara #mascaralautroi</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.925207756232687</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9030470914127423</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0221606648199446</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.1357340720221606</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7473071624267238663</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1557</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Mascara gì chưa người đẹp, mascara tơi mi lâu trôi nè người đẹp #Jejo #jejomascara #reviewmascara #mascaralautroi</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>15.11538461538462</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14.97115384615384</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1442307692307692</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1634615384615385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7472240722419141895</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>93800</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7748</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>142</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Cơm nước gì chưa người đẹp, bới tô cơm ga vừa ăn vừa coi nè #makeup #otwoovn #fyp</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8.27505330490405</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.260127931769723</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01492537313432836</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.1513859275053305</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7472003631387004167</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>36500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>215</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fan ruột nhà L’oreal sao mà bỏ qua được sữa chống nắng thế hệ mới này #suachongnang2trong1</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6191780821917808</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.03013698630136986</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.06301369863013699</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7471958480983919880</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>446900</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7609</v>
+      </c>
+      <c r="D48" t="n">
+        <v>44</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2070</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Fan ruột nhà L’oreal sao mà bỏ qua được sữa chống nắng thế hệ mới này #suachongnang2trong1</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1.712463638397852</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.702618035354666</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.009845603043186395</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4631908704408145</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@_lvyyy_/video/7471838835102584082</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>43300</v>
+      </c>
+      <c r="C49" t="n">
+        <v>487</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>30</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Cách t dưỡng tóc dày khỏe tại nhà dạo gần đây, ưng nhất cái mùi hương nha #duongtoc #hairtok #daugoinauloreal</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>1.18013856812933</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>1.124711316397229</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.05542725173210162</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>0.06928406466512702</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7471098942634118407</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>48500</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>683</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>18</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>85</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Mới tìm ra cách siêu đơn giản để xử lý sợi bã nhờn đáng ghét trên mũi #skincareroutine #jumiso #mundauden #fyp</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>1.445360824742268</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>1.408247422680412</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.03711340206185567</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L50" t="n">
         <v>0.1752577319587629</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@_lvyyy_/video/7470875004377287943</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>19300</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>204</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>22</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Dành cho team thích da căng bóng đây #luvum #luvumvn #phytocollagen #trehoacangbong</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>1.072538860103627</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>1.05699481865285</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.0155440414507772</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>0.1139896373056995</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7470727622549409042</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>146700</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2032</v>
-      </c>
-      <c r="D45" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>70</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Phấn phủ mới của lemonade 🍋 #makeupdedang #lemonade #fyp</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1.391274710293115</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.385139740967962</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.006134969325153374</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.04771642808452625</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7470470790262164754</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5213</v>
-      </c>
-      <c r="C46" t="n">
-        <v>250</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>36</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>💕Valentines makeup như này chắc ảnh tan chảy quá💕#makeup #valentinesday #makeupdedang #lemonade</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4.853251486667945</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.795703050067139</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.05754843660080568</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.6905812392096682</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7470152538667502856</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>34300</v>
-      </c>
-      <c r="C47" t="n">
-        <v>303</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>20</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Thành quả sau Tết được lì xì cả đống mụn ẩn 😭nhưng mà không sao vì mình là cô nàng thư giãn #beautytok</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>0.900874635568513</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.8833819241982507</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.01749271137026239</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.05830903790087463</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7470119970773503240</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>27200</v>
-      </c>
-      <c r="C48" t="n">
-        <v>458</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>21</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>GRWM với tui để đi ra ngoài từ 12h-8h và cái nền siêu nghị lực 🐂#chongnangvachdo #kemchongnang</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1.713235294117647</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.683823529411765</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.07720588235294117</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7466302993206398215</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>155400</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12200</v>
-      </c>
-      <c r="D49" t="n">
-        <v>53</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>394</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Tình chị em rạn nứt từ khúc kẻ eyeliner #makeup #aperire #cushionchongnang #fyp #foryou #xh</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7.884813384813384</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.850707850707852</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03410553410553411</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2535392535392536</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@_lvyyy_/video/7465318066713267474</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>26900</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1609</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>80</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Makeup chụp hình nhm không có tấm nào ưng 🫠#makeup #tiam #tiamha #fyp #tet</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6.018587360594795</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.981412639405204</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.03717472118959108</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.2973977695167286</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
         </is>
       </c>
     </row>
